--- a/BangPhanCongCongViec.xlsx
+++ b/BangPhanCongCongViec.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Tên</t>
   </si>
@@ -71,7 +66,10 @@
     <t>5h</t>
   </si>
   <si>
-    <t>5h30'</t>
+    <t>Tìm hiểu trello</t>
+  </si>
+  <si>
+    <t>6h30'</t>
   </si>
 </sst>
 </file>
@@ -223,6 +221,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -233,9 +234,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -300,7 +298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,7 +333,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -544,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H11"/>
+  <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
@@ -557,148 +555,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="H11" s="3"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
+  <mergeCells count="23">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="C5:D5"/>
@@ -711,6 +717,11 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
